--- a/키움_기록.xlsx
+++ b/키움_기록.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>이지영</t>
+          <t>박상언</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -583,76 +583,76 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.239</v>
+        <v>0.271</v>
       </c>
       <c r="E2" t="n">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>243</v>
+        <v>65</v>
       </c>
       <c r="G2" t="n">
-        <v>222</v>
+        <v>59</v>
       </c>
       <c r="H2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.311</v>
+        <v>0.424</v>
       </c>
       <c r="W2" t="n">
-        <v>0.29</v>
+        <v>0.317</v>
       </c>
       <c r="X2" t="n">
-        <v>0.601</v>
+        <v>0.741</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.265</v>
+        <v>0.385</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -661,7 +661,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>김재현</t>
+          <t>허인서</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -670,37 +670,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.213</v>
+        <v>0.222</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -715,28 +715,28 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.319</v>
+        <v>0.222</v>
       </c>
       <c r="W3" t="n">
-        <v>0.245</v>
+        <v>0.3</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.522</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.278</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -748,84 +748,780 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>최재훈</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E4" t="n">
+        <v>65</v>
+      </c>
+      <c r="F4" t="n">
+        <v>256</v>
+      </c>
+      <c r="G4" t="n">
+        <v>215</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>55</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="n">
+        <v>40</v>
+      </c>
+      <c r="U4" t="n">
+        <v>7</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>백용환</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>이해창</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>김재성</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>71</v>
+      </c>
+      <c r="G7" t="n">
+        <v>60</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>20</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>26</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>15</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.143</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>김태군</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="E8" t="n">
+        <v>54</v>
+      </c>
+      <c r="F8" t="n">
+        <v>149</v>
+      </c>
+      <c r="G8" t="n">
+        <v>132</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>44</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>55</v>
+      </c>
+      <c r="N8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>10</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>20</v>
+      </c>
+      <c r="U8" t="n">
+        <v>8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>강민호</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="E9" t="n">
+        <v>65</v>
+      </c>
+      <c r="F9" t="n">
+        <v>231</v>
+      </c>
+      <c r="G9" t="n">
+        <v>208</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14</v>
+      </c>
+      <c r="I9" t="n">
+        <v>47</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>63</v>
+      </c>
+      <c r="N9" t="n">
+        <v>28</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>18</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>30</v>
+      </c>
+      <c r="U9" t="n">
+        <v>13</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>이지영</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="E10" t="n">
+        <v>75</v>
+      </c>
+      <c r="F10" t="n">
+        <v>247</v>
+      </c>
+      <c r="G10" t="n">
+        <v>226</v>
+      </c>
+      <c r="H10" t="n">
+        <v>19</v>
+      </c>
+      <c r="I10" t="n">
+        <v>55</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>71</v>
+      </c>
+      <c r="N10" t="n">
+        <v>21</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>16</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>26</v>
+      </c>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>김재현</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="E11" t="n">
+        <v>33</v>
+      </c>
+      <c r="F11" t="n">
+        <v>49</v>
+      </c>
+      <c r="G11" t="n">
+        <v>47</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>15</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>11</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>김시앙</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>포수</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -840,7 +1536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,7 +1682,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>김태진</t>
+          <t>노시환</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -995,76 +1691,76 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.293</v>
+        <v>0.296</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F2" t="n">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="G2" t="n">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V2" t="n">
-        <v>0.317</v>
+        <v>0.408</v>
       </c>
       <c r="W2" t="n">
-        <v>0.322</v>
+        <v>0.396</v>
       </c>
       <c r="X2" t="n">
-        <v>0.639</v>
+        <v>0.804</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.214</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1073,7 +1769,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>김혜성</t>
+          <t>정은원</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1082,73 +1778,73 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.288</v>
+        <v>0.283</v>
       </c>
       <c r="E3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F3" t="n">
+        <v>323</v>
+      </c>
+      <c r="G3" t="n">
+        <v>279</v>
+      </c>
+      <c r="H3" t="n">
+        <v>38</v>
+      </c>
+      <c r="I3" t="n">
         <v>79</v>
       </c>
-      <c r="F3" t="n">
-        <v>346</v>
-      </c>
-      <c r="G3" t="n">
-        <v>309</v>
-      </c>
-      <c r="H3" t="n">
-        <v>51</v>
-      </c>
-      <c r="I3" t="n">
-        <v>89</v>
-      </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
         <v>5</v>
       </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
       <c r="M3" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="U3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V3" t="n">
-        <v>0.366</v>
+        <v>0.394</v>
       </c>
       <c r="W3" t="n">
-        <v>0.355</v>
+        <v>0.37</v>
       </c>
       <c r="X3" t="n">
-        <v>0.721</v>
+        <v>0.764</v>
       </c>
       <c r="Y3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.313</v>
+        <v>0.297</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1160,7 +1856,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>송성문</t>
+          <t>김인환</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1169,76 +1865,76 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.269</v>
+        <v>0.27</v>
       </c>
       <c r="E4" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>328</v>
+        <v>190</v>
       </c>
       <c r="G4" t="n">
-        <v>305</v>
+        <v>178</v>
       </c>
       <c r="H4" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="N4" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>0.407</v>
+        <v>0.438</v>
       </c>
       <c r="W4" t="n">
         <v>0.311</v>
       </c>
       <c r="X4" t="n">
-        <v>0.718</v>
+        <v>0.749</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.292</v>
+        <v>0.265</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -1247,7 +1943,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>김휘집</t>
+          <t>변우혁</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1256,76 +1952,76 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.263</v>
+        <v>0.245</v>
       </c>
       <c r="E5" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="G5" t="n">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
         <v>23</v>
       </c>
-      <c r="I5" t="n">
-        <v>36</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="N5" t="n">
         <v>6</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>48</v>
-      </c>
-      <c r="N5" t="n">
-        <v>14</v>
-      </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="U5" t="n">
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>0.35</v>
+        <v>0.469</v>
       </c>
       <c r="W5" t="n">
-        <v>0.356</v>
+        <v>0.245</v>
       </c>
       <c r="X5" t="n">
-        <v>0.706</v>
+        <v>0.714</v>
       </c>
       <c r="Y5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.205</v>
+        <v>0.167</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -1334,7 +2030,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>이명기</t>
+          <t>박정현</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1343,46 +2039,46 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>0.241</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1391,28 +2087,28 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>0.25</v>
+        <v>0.324</v>
       </c>
       <c r="W6" t="n">
-        <v>0.25</v>
+        <v>0.267</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5</v>
+        <v>0.591</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="7">
@@ -1421,7 +2117,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>이재홍</t>
+          <t>하주석</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1430,76 +2126,76 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>0.218</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>226</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>0.25</v>
+        <v>0.296</v>
       </c>
       <c r="W7" t="n">
-        <v>0.25</v>
+        <v>0.279</v>
       </c>
       <c r="X7" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="AA7" t="n">
         <v>0.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1508,7 +2204,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>김웅빈</t>
+          <t>이성곤</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1517,40 +2213,40 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.24</v>
+        <v>0.206</v>
       </c>
       <c r="E8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G8" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H8" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1559,34 +2255,34 @@
         <v>12</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.347</v>
+        <v>0.25</v>
       </c>
       <c r="W8" t="n">
-        <v>0.36</v>
+        <v>0.325</v>
       </c>
       <c r="X8" t="n">
-        <v>0.707</v>
+        <v>0.575</v>
       </c>
       <c r="Y8" t="n">
         <v>3</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.158</v>
+        <v>0.125</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -1595,7 +2291,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>김수환</t>
+          <t>이도윤</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1604,22 +2300,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.233</v>
+        <v>0.165</v>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F9" t="n">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G9" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H9" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J9" t="n">
         <v>5</v>
@@ -1628,52 +2324,52 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
         <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.389</v>
+        <v>0.259</v>
       </c>
       <c r="W9" t="n">
-        <v>0.355</v>
+        <v>0.217</v>
       </c>
       <c r="X9" t="n">
-        <v>0.744</v>
+        <v>0.476</v>
       </c>
       <c r="Y9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.158</v>
+        <v>0.25</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.2</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="10">
@@ -1682,7 +2378,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>전병우</t>
+          <t>정민규</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1691,85 +2387,85 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.202</v>
+        <v>0.13</v>
       </c>
       <c r="E10" t="n">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="H10" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.331</v>
+        <v>0.13</v>
       </c>
       <c r="W10" t="n">
-        <v>0.292</v>
+        <v>0.167</v>
       </c>
       <c r="X10" t="n">
-        <v>0.623</v>
+        <v>0.297</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.104</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>김주형</t>
+          <t>김지찬</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1778,85 +2474,85 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.196</v>
+        <v>0.28</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F11" t="n">
-        <v>120</v>
+        <v>233</v>
       </c>
       <c r="G11" t="n">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="H11" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="I11" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0.314</v>
+        <v>0.35</v>
       </c>
       <c r="W11" t="n">
-        <v>0.308</v>
+        <v>0.357</v>
       </c>
       <c r="X11" t="n">
-        <v>0.622</v>
+        <v>0.707</v>
       </c>
       <c r="Y11" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>신준우</t>
+          <t>오재일</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1865,73 +2561,73 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.133</v>
+        <v>0.271</v>
       </c>
       <c r="E12" t="n">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F12" t="n">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c r="H12" t="n">
+        <v>28</v>
+      </c>
+      <c r="I12" t="n">
+        <v>70</v>
+      </c>
+      <c r="J12" t="n">
+        <v>17</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>12</v>
+      </c>
+      <c r="M12" t="n">
+        <v>123</v>
+      </c>
+      <c r="N12" t="n">
+        <v>45</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>4</v>
       </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>7</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>0.233</v>
+        <v>0.477</v>
       </c>
       <c r="W12" t="n">
-        <v>0.297</v>
+        <v>0.354</v>
       </c>
       <c r="X12" t="n">
-        <v>0.53</v>
+        <v>0.831</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.125</v>
+        <v>0.289</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -1939,88 +2635,2176 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>이해승</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="E13" t="n">
+        <v>27</v>
+      </c>
+      <c r="F13" t="n">
+        <v>88</v>
+      </c>
+      <c r="G13" t="n">
+        <v>83</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>22</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>25</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>오선진</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="E14" t="n">
+        <v>48</v>
+      </c>
+      <c r="F14" t="n">
+        <v>180</v>
+      </c>
+      <c r="G14" t="n">
+        <v>155</v>
+      </c>
+      <c r="H14" t="n">
+        <v>15</v>
+      </c>
+      <c r="I14" t="n">
+        <v>40</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>53</v>
+      </c>
+      <c r="N14" t="n">
+        <v>18</v>
+      </c>
+      <c r="O14" t="n">
+        <v>11</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>29</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>김동진</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>강한울</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="E16" t="n">
+        <v>49</v>
+      </c>
+      <c r="F16" t="n">
+        <v>91</v>
+      </c>
+      <c r="G16" t="n">
+        <v>83</v>
+      </c>
+      <c r="H16" t="n">
+        <v>12</v>
+      </c>
+      <c r="I16" t="n">
+        <v>20</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>24</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>28</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>이원석</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="E17" t="n">
+        <v>29</v>
+      </c>
+      <c r="F17" t="n">
+        <v>119</v>
+      </c>
+      <c r="G17" t="n">
+        <v>99</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11</v>
+      </c>
+      <c r="I17" t="n">
+        <v>22</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>37</v>
+      </c>
+      <c r="N17" t="n">
+        <v>18</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>12</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>29</v>
+      </c>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>이재현</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="E18" t="n">
+        <v>46</v>
+      </c>
+      <c r="F18" t="n">
+        <v>149</v>
+      </c>
+      <c r="G18" t="n">
+        <v>144</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>32</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>43</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>28</v>
+      </c>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>이태훈</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>16</v>
+      </c>
+      <c r="G19" t="n">
+        <v>15</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>최영진</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E20" t="n">
+        <v>42</v>
+      </c>
+      <c r="F20" t="n">
+        <v>90</v>
+      </c>
+      <c r="G20" t="n">
+        <v>79</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>25</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>8</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>19</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.267</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>공민규</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>안주형</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="E22" t="n">
+        <v>12</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14</v>
+      </c>
+      <c r="G22" t="n">
+        <v>12</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>김상수</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="n">
+        <v>83</v>
+      </c>
+      <c r="G23" t="n">
+        <v>73</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>12</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>18</v>
+      </c>
+      <c r="N23" t="n">
+        <v>12</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>10</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>16</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>김호재</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E24" t="n">
+        <v>19</v>
+      </c>
+      <c r="F24" t="n">
+        <v>26</v>
+      </c>
+      <c r="G24" t="n">
+        <v>25</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>7</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>이성규</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9</v>
+      </c>
+      <c r="F25" t="n">
+        <v>26</v>
+      </c>
+      <c r="G25" t="n">
+        <v>20</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="n">
+        <v>6</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>김태진</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="E26" t="n">
+        <v>27</v>
+      </c>
+      <c r="F26" t="n">
+        <v>88</v>
+      </c>
+      <c r="G26" t="n">
+        <v>82</v>
+      </c>
+      <c r="H26" t="n">
+        <v>16</v>
+      </c>
+      <c r="I26" t="n">
+        <v>24</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>26</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>9</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>김혜성</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="E27" t="n">
+        <v>80</v>
+      </c>
+      <c r="F27" t="n">
+        <v>351</v>
+      </c>
+      <c r="G27" t="n">
+        <v>312</v>
+      </c>
+      <c r="H27" t="n">
+        <v>51</v>
+      </c>
+      <c r="I27" t="n">
+        <v>90</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>114</v>
+      </c>
+      <c r="N27" t="n">
+        <v>30</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>36</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>54</v>
+      </c>
+      <c r="U27" t="n">
+        <v>6</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>송성문</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="E28" t="n">
+        <v>78</v>
+      </c>
+      <c r="F28" t="n">
+        <v>333</v>
+      </c>
+      <c r="G28" t="n">
+        <v>309</v>
+      </c>
+      <c r="H28" t="n">
+        <v>36</v>
+      </c>
+      <c r="I28" t="n">
+        <v>83</v>
+      </c>
+      <c r="J28" t="n">
+        <v>15</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3</v>
+      </c>
+      <c r="L28" t="n">
+        <v>7</v>
+      </c>
+      <c r="M28" t="n">
+        <v>125</v>
+      </c>
+      <c r="N28" t="n">
+        <v>47</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>21</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>38</v>
+      </c>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>김휘집</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="E29" t="n">
+        <v>49</v>
+      </c>
+      <c r="F29" t="n">
+        <v>163</v>
+      </c>
+      <c r="G29" t="n">
+        <v>139</v>
+      </c>
+      <c r="H29" t="n">
+        <v>23</v>
+      </c>
+      <c r="I29" t="n">
+        <v>36</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>48</v>
+      </c>
+      <c r="N29" t="n">
+        <v>14</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>16</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>50</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>이명기</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>이재홍</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>김웅빈</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="E32" t="n">
+        <v>27</v>
+      </c>
+      <c r="F32" t="n">
+        <v>91</v>
+      </c>
+      <c r="G32" t="n">
+        <v>76</v>
+      </c>
+      <c r="H32" t="n">
+        <v>13</v>
+      </c>
+      <c r="I32" t="n">
+        <v>18</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>26</v>
+      </c>
+      <c r="N32" t="n">
+        <v>9</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>12</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="n">
+        <v>26</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>김수환</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="E33" t="n">
+        <v>36</v>
+      </c>
+      <c r="F33" t="n">
+        <v>110</v>
+      </c>
+      <c r="G33" t="n">
+        <v>91</v>
+      </c>
+      <c r="H33" t="n">
+        <v>12</v>
+      </c>
+      <c r="I33" t="n">
+        <v>21</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>35</v>
+      </c>
+      <c r="N33" t="n">
+        <v>9</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>15</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="n">
+        <v>34</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.167</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>전병우</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="E34" t="n">
+        <v>74</v>
+      </c>
+      <c r="F34" t="n">
+        <v>193</v>
+      </c>
+      <c r="G34" t="n">
+        <v>163</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12</v>
+      </c>
+      <c r="I34" t="n">
+        <v>33</v>
+      </c>
+      <c r="J34" t="n">
+        <v>6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>54</v>
+      </c>
+      <c r="N34" t="n">
+        <v>19</v>
+      </c>
+      <c r="O34" t="n">
+        <v>8</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>15</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>6</v>
+      </c>
+      <c r="T34" t="n">
+        <v>48</v>
+      </c>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>김주형</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="E35" t="n">
+        <v>41</v>
+      </c>
+      <c r="F35" t="n">
+        <v>120</v>
+      </c>
+      <c r="G35" t="n">
+        <v>102</v>
+      </c>
+      <c r="H35" t="n">
+        <v>13</v>
+      </c>
+      <c r="I35" t="n">
+        <v>20</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>32</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>13</v>
+      </c>
+      <c r="T35" t="n">
+        <v>29</v>
+      </c>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>신준우</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="E36" t="n">
+        <v>47</v>
+      </c>
+      <c r="F36" t="n">
+        <v>38</v>
+      </c>
+      <c r="G36" t="n">
+        <v>30</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>7</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>6</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="n">
+        <v>12</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>강민국</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>내야수</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" t="n">
         <v>4</v>
       </c>
-      <c r="G13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="G37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>0.25</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X37" t="n">
         <v>0.25</v>
       </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2035,7 +4819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2181,7 +4965,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>이정후</t>
+          <t>장운호</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2190,73 +4974,73 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.341</v>
+        <v>0.3</v>
       </c>
       <c r="E2" t="n">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>339</v>
+        <v>35</v>
       </c>
       <c r="G2" t="n">
-        <v>293</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
         <v>14</v>
       </c>
-      <c r="M2" t="n">
-        <v>165</v>
-      </c>
       <c r="N2" t="n">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="U2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.467</v>
       </c>
       <c r="W2" t="n">
-        <v>0.425</v>
+        <v>0.353</v>
       </c>
       <c r="X2" t="n">
-        <v>0.988</v>
+        <v>0.82</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.423</v>
+        <v>0.273</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -2268,7 +5052,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>푸이그</t>
+          <t>터크먼</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2277,73 +5061,73 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.232</v>
+        <v>0.29</v>
       </c>
       <c r="E3" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F3" t="n">
-        <v>271</v>
+        <v>343</v>
       </c>
       <c r="G3" t="n">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="H3" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I3" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="N3" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V3" t="n">
-        <v>0.397</v>
+        <v>0.403</v>
       </c>
       <c r="W3" t="n">
-        <v>0.325</v>
+        <v>0.353</v>
       </c>
       <c r="X3" t="n">
-        <v>0.722</v>
+        <v>0.756</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.226</v>
+        <v>0.189</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -2355,7 +5139,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>박주홍</t>
+          <t>유로결</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2364,37 +5148,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.229</v>
+        <v>0.286</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
         <v>4</v>
       </c>
-      <c r="I4" t="n">
-        <v>11</v>
-      </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -2403,34 +5187,34 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.292</v>
+        <v>0.286</v>
       </c>
       <c r="W4" t="n">
-        <v>0.339</v>
+        <v>0.286</v>
       </c>
       <c r="X4" t="n">
-        <v>0.631</v>
+        <v>0.572</v>
       </c>
       <c r="Y4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.111</v>
+        <v>0.2</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -2442,7 +5226,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>김준완</t>
+          <t>권광민</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2451,73 +5235,73 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.211</v>
+        <v>0.233</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="G5" t="n">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>19</v>
       </c>
-      <c r="I5" t="n">
+      <c r="N5" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>13</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
         <v>26</v>
       </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>34</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>25</v>
-      </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.276</v>
+        <v>0.317</v>
       </c>
       <c r="W5" t="n">
-        <v>0.357</v>
+        <v>0.373</v>
       </c>
       <c r="X5" t="n">
-        <v>0.633</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.172</v>
+        <v>0.286</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -2529,7 +5313,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>박찬혁</t>
+          <t>노수광</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2538,76 +5322,76 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.208</v>
+        <v>0.232</v>
       </c>
       <c r="E6" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F6" t="n">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="G6" t="n">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I6" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>0.392</v>
+        <v>0.376</v>
       </c>
       <c r="W6" t="n">
-        <v>0.277</v>
+        <v>0.303</v>
       </c>
       <c r="X6" t="n">
-        <v>0.669</v>
+        <v>0.679</v>
       </c>
       <c r="Y6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.242</v>
+        <v>0.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
@@ -2616,7 +5400,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>이용규</t>
+          <t>이진영</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2625,76 +5409,76 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.197</v>
+        <v>0.218</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F7" t="n">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="G7" t="n">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="H7" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I7" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N7" t="n">
+        <v>28</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>14</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>66</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="Y7" t="n">
         <v>9</v>
       </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>21</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>15</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.226</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.309</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>7</v>
-      </c>
       <c r="Z7" t="n">
-        <v>0.167</v>
+        <v>0.268</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="8">
@@ -2703,7 +5487,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>임지열</t>
+          <t>김태연</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2712,73 +5496,73 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.188</v>
+        <v>0.214</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="G8" t="n">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V8" t="n">
-        <v>0.188</v>
+        <v>0.291</v>
       </c>
       <c r="W8" t="n">
-        <v>0.188</v>
+        <v>0.281</v>
       </c>
       <c r="X8" t="n">
-        <v>0.376</v>
+        <v>0.572</v>
       </c>
       <c r="Y8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.333</v>
+        <v>0.226</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -2790,7 +5574,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>박준태</t>
+          <t>임종찬</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2799,73 +5583,73 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.18</v>
+        <v>0.189</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3</v>
+        <v>0.321</v>
       </c>
       <c r="W9" t="n">
-        <v>0.339</v>
+        <v>0.228</v>
       </c>
       <c r="X9" t="n">
-        <v>0.639</v>
+        <v>0.549</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.25</v>
+        <v>0.222</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -2877,7 +5661,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>이주형</t>
+          <t>이원석</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2886,76 +5670,76 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.176</v>
+        <v>0.13</v>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
       </c>
       <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
         <v>6</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>9</v>
-      </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>0.265</v>
+        <v>0.261</v>
       </c>
       <c r="W10" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="X10" t="n">
-        <v>0.575</v>
+        <v>0.461</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.154</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2964,7 +5748,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>이병규</t>
+          <t>원혁재</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2973,37 +5757,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.172</v>
+        <v>0.095</v>
       </c>
       <c r="E11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" t="n">
+        <v>23</v>
+      </c>
+      <c r="G11" t="n">
         <v>21</v>
       </c>
-      <c r="F11" t="n">
-        <v>31</v>
-      </c>
-      <c r="G11" t="n">
-        <v>29</v>
-      </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -3021,25 +5805,25 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0.276</v>
+        <v>0.143</v>
       </c>
       <c r="W11" t="n">
-        <v>0.226</v>
+        <v>0.174</v>
       </c>
       <c r="X11" t="n">
-        <v>0.502</v>
+        <v>0.317</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.333</v>
+        <v>0.2</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -3047,88 +5831,1915 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>피렐라</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E12" t="n">
+        <v>75</v>
+      </c>
+      <c r="F12" t="n">
+        <v>327</v>
+      </c>
+      <c r="G12" t="n">
+        <v>288</v>
+      </c>
+      <c r="H12" t="n">
+        <v>48</v>
+      </c>
+      <c r="I12" t="n">
+        <v>95</v>
+      </c>
+      <c r="J12" t="n">
+        <v>14</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>12</v>
+      </c>
+      <c r="M12" t="n">
+        <v>151</v>
+      </c>
+      <c r="N12" t="n">
+        <v>49</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>32</v>
+      </c>
+      <c r="R12" t="n">
+        <v>8</v>
+      </c>
+      <c r="S12" t="n">
+        <v>7</v>
+      </c>
+      <c r="T12" t="n">
+        <v>34</v>
+      </c>
+      <c r="U12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="V12" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>김현준</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="E13" t="n">
+        <v>59</v>
+      </c>
+      <c r="F13" t="n">
+        <v>168</v>
+      </c>
+      <c r="G13" t="n">
+        <v>142</v>
+      </c>
+      <c r="H13" t="n">
+        <v>25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>45</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>56</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>19</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>29</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>구자욱</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E14" t="n">
+        <v>40</v>
+      </c>
+      <c r="F14" t="n">
+        <v>179</v>
+      </c>
+      <c r="G14" t="n">
+        <v>168</v>
+      </c>
+      <c r="H14" t="n">
+        <v>22</v>
+      </c>
+      <c r="I14" t="n">
+        <v>47</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>64</v>
+      </c>
+      <c r="N14" t="n">
+        <v>19</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>39</v>
+      </c>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>김동엽</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="E15" t="n">
+        <v>25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>90</v>
+      </c>
+      <c r="G15" t="n">
+        <v>86</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>21</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>32</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>20</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>김재혁</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" t="n">
+        <v>39</v>
+      </c>
+      <c r="G16" t="n">
+        <v>33</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>9</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>9</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>김성윤</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17</v>
+      </c>
+      <c r="F17" t="n">
+        <v>28</v>
+      </c>
+      <c r="G17" t="n">
+        <v>23</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>7</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>6</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>김헌곤</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="E18" t="n">
+        <v>64</v>
+      </c>
+      <c r="F18" t="n">
+        <v>201</v>
+      </c>
+      <c r="G18" t="n">
+        <v>187</v>
+      </c>
+      <c r="H18" t="n">
+        <v>16</v>
+      </c>
+      <c r="I18" t="n">
+        <v>37</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>43</v>
+      </c>
+      <c r="N18" t="n">
+        <v>15</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>8</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>20</v>
+      </c>
+      <c r="U18" t="n">
+        <v>8</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>박승규</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="E19" t="n">
+        <v>37</v>
+      </c>
+      <c r="F19" t="n">
+        <v>50</v>
+      </c>
+      <c r="G19" t="n">
+        <v>46</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>10</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>11</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>송준석</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E20" t="n">
+        <v>13</v>
+      </c>
+      <c r="F20" t="n">
+        <v>28</v>
+      </c>
+      <c r="G20" t="n">
+        <v>26</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>김성표</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="E21" t="n">
+        <v>14</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" t="n">
+        <v>14</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>윤정빈</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>이정후</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="E23" t="n">
+        <v>78</v>
+      </c>
+      <c r="F23" t="n">
+        <v>344</v>
+      </c>
+      <c r="G23" t="n">
+        <v>297</v>
+      </c>
+      <c r="H23" t="n">
+        <v>42</v>
+      </c>
+      <c r="I23" t="n">
+        <v>102</v>
+      </c>
+      <c r="J23" t="n">
+        <v>17</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>14</v>
+      </c>
+      <c r="M23" t="n">
+        <v>167</v>
+      </c>
+      <c r="N23" t="n">
+        <v>59</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>43</v>
+      </c>
+      <c r="R23" t="n">
+        <v>11</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="n">
+        <v>15</v>
+      </c>
+      <c r="U23" t="n">
+        <v>7</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>푸이그</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="E24" t="n">
+        <v>64</v>
+      </c>
+      <c r="F24" t="n">
+        <v>271</v>
+      </c>
+      <c r="G24" t="n">
+        <v>237</v>
+      </c>
+      <c r="H24" t="n">
+        <v>33</v>
+      </c>
+      <c r="I24" t="n">
+        <v>55</v>
+      </c>
+      <c r="J24" t="n">
+        <v>15</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>94</v>
+      </c>
+      <c r="N24" t="n">
+        <v>32</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>27</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="T24" t="n">
+        <v>55</v>
+      </c>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>박주홍</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="E25" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" t="n">
+        <v>56</v>
+      </c>
+      <c r="G25" t="n">
+        <v>48</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>11</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>14</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>8</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>18</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>김준완</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="E26" t="n">
+        <v>51</v>
+      </c>
+      <c r="F26" t="n">
+        <v>161</v>
+      </c>
+      <c r="G26" t="n">
+        <v>127</v>
+      </c>
+      <c r="H26" t="n">
+        <v>20</v>
+      </c>
+      <c r="I26" t="n">
+        <v>27</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>35</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>26</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>27</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>박찬혁</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="E27" t="n">
+        <v>38</v>
+      </c>
+      <c r="F27" t="n">
+        <v>137</v>
+      </c>
+      <c r="G27" t="n">
+        <v>125</v>
+      </c>
+      <c r="H27" t="n">
+        <v>13</v>
+      </c>
+      <c r="I27" t="n">
+        <v>26</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6</v>
+      </c>
+      <c r="M27" t="n">
+        <v>49</v>
+      </c>
+      <c r="N27" t="n">
+        <v>16</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>8</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>54</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>이용규</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="E28" t="n">
+        <v>39</v>
+      </c>
+      <c r="F28" t="n">
+        <v>168</v>
+      </c>
+      <c r="G28" t="n">
+        <v>142</v>
+      </c>
+      <c r="H28" t="n">
+        <v>20</v>
+      </c>
+      <c r="I28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>33</v>
+      </c>
+      <c r="N28" t="n">
+        <v>9</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>21</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="n">
+        <v>15</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>임지열</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>16</v>
+      </c>
+      <c r="G29" t="n">
+        <v>16</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>6</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>박준태</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="E30" t="n">
+        <v>32</v>
+      </c>
+      <c r="F30" t="n">
+        <v>67</v>
+      </c>
+      <c r="G30" t="n">
+        <v>54</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>16</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>10</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="n">
+        <v>26</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>이병규</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="E31" t="n">
+        <v>22</v>
+      </c>
+      <c r="F31" t="n">
+        <v>36</v>
+      </c>
+      <c r="G31" t="n">
+        <v>34</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>9</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>10</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>이주형</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="E32" t="n">
+        <v>18</v>
+      </c>
+      <c r="F32" t="n">
+        <v>42</v>
+      </c>
+      <c r="G32" t="n">
+        <v>34</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>9</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>6</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="n">
+        <v>12</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>예진원</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>외야수</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D33" t="n">
         <v>0.143</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E33" t="n">
         <v>13</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F33" t="n">
         <v>10</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G33" t="n">
         <v>7</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>0.143</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W33" t="n">
         <v>0.333</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X33" t="n">
         <v>0.476</v>
       </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3369,7 +7980,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>최원태</t>
+          <t>안우진</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3379,20 +7990,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72 1/3</t>
+          <t>103</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.36</v>
+        <v>2.18</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3401,31 +8012,31 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.667</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="Q2" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S2" t="n">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3434,46 +8045,46 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>304</v>
+        <v>411</v>
       </c>
       <c r="Y2" t="n">
-        <v>1211</v>
+        <v>1631</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.231</v>
+        <v>0.193</v>
       </c>
       <c r="AA2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
@@ -3491,13 +8102,13 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP2" t="n">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.11</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="3">
@@ -3506,7 +8117,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>애플러</t>
+          <t>최원태</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3516,20 +8127,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79 2/3</t>
+          <t>72 1/3</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.29</v>
+        <v>3.36</v>
       </c>
       <c r="F3" t="n">
         <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -3538,70 +8149,70 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="L3" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
         <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q3" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R3" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="S3" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="Y3" t="n">
-        <v>1265</v>
+        <v>1211</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.289</v>
+        <v>0.231</v>
       </c>
       <c r="AA3" t="n">
         <v>20</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -3610,31 +8221,31 @@
         <v>15</v>
       </c>
       <c r="AI3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>4</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>10</v>
-      </c>
       <c r="AO3" t="n">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="AP3" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.72</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="4">
@@ -3643,7 +8254,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>안우진</t>
+          <t>애플러</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3653,17 +8264,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>95 1/3</t>
+          <t>79 2/3</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.17</v>
+        <v>4.29</v>
       </c>
       <c r="F4" t="n">
         <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -3675,70 +8286,70 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="L4" t="n">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N4" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="R4" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="S4" t="n">
-        <v>1.05</v>
+        <v>1.37</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="Y4" t="n">
-        <v>1526</v>
+        <v>1265</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.199</v>
+        <v>0.289</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
@@ -3747,13 +8358,13 @@
         <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" t="n">
         <v>0</v>
@@ -3762,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AP4" t="n">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.87</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="5">
@@ -6127,14 +10738,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>31 2/3</t>
+          <t>32 2/3</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="F22" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -6143,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J22" t="n">
         <v>8</v>
@@ -6154,10 +10765,10 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>10</v>
@@ -6169,13 +10780,13 @@
         <v>27</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S22" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -6190,13 +10801,13 @@
         <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Y22" t="n">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.176</v>
+        <v>0.186</v>
       </c>
       <c r="AA22" t="n">
         <v>1</v>
@@ -6229,10 +10840,10 @@
         <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -6241,13 +10852,13 @@
         <v>2</v>
       </c>
       <c r="AO22" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AP22" t="n">
         <v>26</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23">
@@ -6266,17 +10877,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10 1/3</t>
+          <t>10 2/3</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -6312,7 +10923,7 @@
         <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -6327,13 +10938,13 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.125</v>
+        <v>0.121</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -6363,7 +10974,7 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK23" t="n">
         <v>3</v>
@@ -6381,10 +10992,10 @@
         <v>16</v>
       </c>
       <c r="AP23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="24">

--- a/키움_기록.xlsx
+++ b/키움_기록.xlsx
@@ -583,25 +583,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.243</v>
+        <v>0.245</v>
       </c>
       <c r="E2" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="G2" t="n">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -610,10 +610,10 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" t="n">
         <v>5</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -631,25 +631,25 @@
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U2" t="n">
         <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>0.314</v>
+        <v>0.318</v>
       </c>
       <c r="W2" t="n">
-        <v>0.296</v>
+        <v>0.299</v>
       </c>
       <c r="X2" t="n">
-        <v>0.61</v>
+        <v>0.617</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.261</v>
+        <v>0.264</v>
       </c>
       <c r="AA2" t="n">
         <v>0.4</v>
@@ -757,67 +757,67 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>3</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
         <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>김태진</t>
+          <t>김혜성</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -995,76 +995,76 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.293</v>
+        <v>0.303</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F2" t="n">
-        <v>88</v>
+        <v>372</v>
       </c>
       <c r="G2" t="n">
-        <v>82</v>
+        <v>333</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V2" t="n">
-        <v>0.317</v>
+        <v>0.381</v>
       </c>
       <c r="W2" t="n">
-        <v>0.322</v>
+        <v>0.368</v>
       </c>
       <c r="X2" t="n">
-        <v>0.639</v>
+        <v>0.749</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.214</v>
+        <v>0.307</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>김혜성</t>
+          <t>김태진</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1082,76 +1082,76 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.288</v>
+        <v>0.293</v>
       </c>
       <c r="E3" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
-        <v>355</v>
+        <v>88</v>
       </c>
       <c r="G3" t="n">
-        <v>316</v>
+        <v>82</v>
       </c>
       <c r="H3" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I3" t="n">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>26</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>9</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="Y3" t="n">
         <v>8</v>
       </c>
-      <c r="K3" t="n">
-        <v>5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>115</v>
-      </c>
-      <c r="N3" t="n">
-        <v>30</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>36</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>55</v>
-      </c>
-      <c r="U3" t="n">
-        <v>6</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.358</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>22</v>
-      </c>
       <c r="Z3" t="n">
-        <v>0.301</v>
+        <v>0.214</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="4">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>송성문</t>
+          <t>김휘집</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1169,73 +1169,73 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.265</v>
+        <v>0.266</v>
       </c>
       <c r="E4" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="F4" t="n">
-        <v>337</v>
+        <v>184</v>
       </c>
       <c r="G4" t="n">
-        <v>313</v>
+        <v>154</v>
       </c>
       <c r="H4" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I4" t="n">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="N4" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T4" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>0.399</v>
+        <v>0.351</v>
       </c>
       <c r="W4" t="n">
-        <v>0.309</v>
+        <v>0.372</v>
       </c>
       <c r="X4" t="n">
-        <v>0.708</v>
+        <v>0.723</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.29</v>
+        <v>0.227</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>김휘집</t>
+          <t>송성문</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1256,73 +1256,73 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.261</v>
+        <v>0.26</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F5" t="n">
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="G5" t="n">
-        <v>142</v>
+        <v>327</v>
       </c>
       <c r="H5" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I5" t="n">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
+        <v>127</v>
+      </c>
+      <c r="N5" t="n">
         <v>49</v>
       </c>
-      <c r="N5" t="n">
-        <v>15</v>
-      </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>0.345</v>
+        <v>0.388</v>
       </c>
       <c r="W5" t="n">
-        <v>0.355</v>
+        <v>0.308</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7</v>
+        <v>0.696</v>
       </c>
       <c r="Y5" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.22</v>
+        <v>0.286</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.231</v>
+        <v>0.223</v>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G9" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H9" t="n">
         <v>12</v>
@@ -1652,25 +1652,25 @@
         <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.385</v>
+        <v>0.372</v>
       </c>
       <c r="W9" t="n">
-        <v>0.352</v>
+        <v>0.342</v>
       </c>
       <c r="X9" t="n">
-        <v>0.737</v>
+        <v>0.714</v>
       </c>
       <c r="Y9" t="n">
         <v>5</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.158</v>
+        <v>0.15</v>
       </c>
       <c r="AA9" t="n">
         <v>0.167</v>
@@ -1694,19 +1694,19 @@
         <v>0.198</v>
       </c>
       <c r="E10" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F10" t="n">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G10" t="n">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10" t="n">
         <v>6</v>
@@ -1718,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N10" t="n">
         <v>19</v>
@@ -1739,19 +1739,19 @@
         <v>6</v>
       </c>
       <c r="T10" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>0.323</v>
+        <v>0.32</v>
       </c>
       <c r="W10" t="n">
-        <v>0.286</v>
+        <v>0.284</v>
       </c>
       <c r="X10" t="n">
-        <v>0.609</v>
+        <v>0.604</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -1781,7 +1781,7 @@
         <v>0.196</v>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" t="n">
         <v>120</v>
@@ -1868,7 +1868,7 @@
         <v>0.133</v>
       </c>
       <c r="E12" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
         <v>38</v>
@@ -2190,37 +2190,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.342</v>
+        <v>0.337</v>
       </c>
       <c r="E2" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F2" t="n">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="G2" t="n">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="H2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>14</v>
       </c>
       <c r="M2" t="n">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="N2" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U2" t="n">
         <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="W2" t="n">
-        <v>0.428</v>
+        <v>0.419</v>
       </c>
       <c r="X2" t="n">
-        <v>0.988</v>
+        <v>0.977</v>
       </c>
       <c r="Y2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.417</v>
+        <v>0.397</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -2277,25 +2277,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.232</v>
+        <v>0.237</v>
       </c>
       <c r="E3" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F3" t="n">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="G3" t="n">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="H3" t="n">
         <v>33</v>
       </c>
       <c r="I3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
@@ -2325,25 +2325,25 @@
         <v>6</v>
       </c>
       <c r="T3" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U3" t="n">
         <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>0.397</v>
+        <v>0.395</v>
       </c>
       <c r="W3" t="n">
-        <v>0.325</v>
+        <v>0.326</v>
       </c>
       <c r="X3" t="n">
-        <v>0.722</v>
+        <v>0.721</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.226</v>
+        <v>0.263</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -2451,22 +2451,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.209</v>
+        <v>0.217</v>
       </c>
       <c r="E5" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F5" t="n">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G5" t="n">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N5" t="n">
         <v>14</v>
@@ -2490,34 +2490,34 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U5" t="n">
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>0.271</v>
+        <v>0.273</v>
       </c>
       <c r="W5" t="n">
-        <v>0.36</v>
+        <v>0.365</v>
       </c>
       <c r="X5" t="n">
-        <v>0.631</v>
+        <v>0.638</v>
       </c>
       <c r="Y5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.167</v>
+        <v>0.147</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>박찬혁</t>
+          <t>이용규</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2538,73 +2538,73 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.208</v>
+        <v>0.209</v>
       </c>
       <c r="E6" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="G6" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I6" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="N6" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
+        <v>25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>18</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="Y6" t="n">
         <v>8</v>
       </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>54</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.277</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.669</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>2</v>
-      </c>
       <c r="Z6" t="n">
-        <v>0.242</v>
+        <v>0.188</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>이용규</t>
+          <t>박찬혁</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2625,73 +2625,73 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.204</v>
+        <v>0.208</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="G7" t="n">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I7" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>49</v>
+      </c>
+      <c r="N7" t="n">
+        <v>16</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>4</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>34</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>21</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
       <c r="T7" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.231</v>
+        <v>0.392</v>
       </c>
       <c r="W7" t="n">
-        <v>0.308</v>
+        <v>0.277</v>
       </c>
       <c r="X7" t="n">
-        <v>0.539</v>
+        <v>0.669</v>
       </c>
       <c r="Y7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.188</v>
+        <v>0.242</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -2712,38 +2712,38 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.188</v>
+        <v>0.2</v>
       </c>
       <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>4</v>
       </c>
-      <c r="F8" t="n">
-        <v>16</v>
-      </c>
-      <c r="G8" t="n">
-        <v>16</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2</v>
-      </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.188</v>
+        <v>0.2</v>
       </c>
       <c r="W8" t="n">
-        <v>0.188</v>
+        <v>0.273</v>
       </c>
       <c r="X8" t="n">
-        <v>0.376</v>
+        <v>0.473</v>
       </c>
       <c r="Y8" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         <v>0.333</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>박준태</t>
+          <t>이병규</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2799,73 +2799,73 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.182</v>
+        <v>0.171</v>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F9" t="n">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G9" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.291</v>
+        <v>0.257</v>
       </c>
       <c r="W9" t="n">
-        <v>0.328</v>
+        <v>0.216</v>
       </c>
       <c r="X9" t="n">
-        <v>0.619</v>
+        <v>0.473</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.25</v>
+        <v>0.273</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>이병규</t>
+          <t>박준태</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2886,73 +2886,73 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.171</v>
+        <v>0.164</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F10" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G10" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
+        <v>16</v>
+      </c>
+      <c r="N10" t="n">
         <v>9</v>
       </c>
-      <c r="N10" t="n">
-        <v>5</v>
-      </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.257</v>
+        <v>0.262</v>
       </c>
       <c r="W10" t="n">
-        <v>0.216</v>
+        <v>0.301</v>
       </c>
       <c r="X10" t="n">
-        <v>0.473</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.273</v>
+        <v>0.235</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -2973,22 +2973,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.167</v>
+        <v>0.163</v>
       </c>
       <c r="E11" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F11" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G11" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
         <v>7</v>
@@ -3012,34 +3012,34 @@
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0.25</v>
+        <v>0.233</v>
       </c>
       <c r="W11" t="n">
-        <v>0.326</v>
+        <v>0.327</v>
       </c>
       <c r="X11" t="n">
-        <v>0.576</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.143</v>
+        <v>0.118</v>
       </c>
       <c r="AA11" t="n">
         <v>0.125</v>
@@ -3379,17 +3379,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>111 1/3</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -3401,22 +3401,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.714</v>
       </c>
       <c r="L2" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="Q2" t="n">
         <v>30</v>
@@ -3425,7 +3425,7 @@
         <v>25</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3434,19 +3434,19 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="Y2" t="n">
-        <v>1631</v>
+        <v>1735</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.193</v>
+        <v>0.185</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -3470,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
@@ -3488,16 +3488,16 @@
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AP2" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>요키시</t>
+          <t>애플러</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3516,92 +3516,92 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100 1/3</t>
+          <t>85 2/3</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.51</v>
+        <v>4.31</v>
       </c>
       <c r="F3" t="n">
         <v>16</v>
       </c>
       <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="L3" t="n">
+        <v>96</v>
+      </c>
+      <c r="M3" t="n">
         <v>7</v>
       </c>
-      <c r="H3" t="n">
+      <c r="N3" t="n">
+        <v>19</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>41</v>
+      </c>
+      <c r="R3" t="n">
+        <v>41</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>367</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1361</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.636</v>
-      </c>
-      <c r="L3" t="n">
-        <v>83</v>
-      </c>
-      <c r="M3" t="n">
-        <v>6</v>
-      </c>
-      <c r="N3" t="n">
-        <v>13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>92</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>31</v>
-      </c>
-      <c r="R3" t="n">
-        <v>28</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>12</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>392</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1522</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>6</v>
-      </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -3610,13 +3610,13 @@
         <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
@@ -3625,16 +3625,16 @@
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AP3" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.16</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="4">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>최원태</t>
+          <t>요키시</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3653,53 +3653,53 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>72 1/3</t>
+          <t>100 1/3</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.36</v>
+        <v>2.51</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="L4" t="n">
+        <v>83</v>
+      </c>
+      <c r="M4" t="n">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="L4" t="n">
-        <v>63</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
       <c r="N4" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="Q4" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S4" t="n">
-        <v>1.23</v>
+        <v>0.96</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>304</v>
+        <v>392</v>
       </c>
       <c r="Y4" t="n">
-        <v>1211</v>
+        <v>1522</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.231</v>
+        <v>0.225</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
         <v>2</v>
@@ -3738,16 +3738,16 @@
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
@@ -3762,16 +3762,16 @@
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="AP4" t="n">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.11</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="5">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>애플러</t>
+          <t>최원태</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3790,20 +3790,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79 2/3</t>
+          <t>78 1/3</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.29</v>
+        <v>3.1</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -3812,37 +3812,37 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="L5" t="n">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="M5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="O5" t="n">
         <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q5" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R5" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="S5" t="n">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>4</v>
@@ -3851,46 +3851,46 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="Y5" t="n">
-        <v>1265</v>
+        <v>1298</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.289</v>
+        <v>0.229</v>
       </c>
       <c r="AA5" t="n">
         <v>20</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
         <v>0</v>
@@ -3899,16 +3899,16 @@
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="AP5" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.72</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="6">
@@ -4064,17 +4064,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>37 2/3</t>
+          <t>42 2/3</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4.78</v>
+        <v>4.22</v>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -4086,22 +4086,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6</v>
+        <v>0.667</v>
       </c>
       <c r="L7" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q7" t="n">
         <v>21</v>
@@ -4110,7 +4110,7 @@
         <v>20</v>
       </c>
       <c r="S7" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -4125,13 +4125,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="Y7" t="n">
-        <v>636</v>
+        <v>721</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.287</v>
+        <v>0.269</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
@@ -4155,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
@@ -4176,13 +4176,13 @@
         <v>2</v>
       </c>
       <c r="AO7" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AP7" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="8">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>윤정현</t>
+          <t>박승주</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4338,17 +4338,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3 1/3</t>
+          <t>14 2/3</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>18.9</v>
+        <v>0.61</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -4357,89 +4357,91 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>61</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>280</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
         <v>7</v>
       </c>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
       <c r="AL9" t="n">
         <v>1</v>
       </c>
@@ -4447,16 +4449,16 @@
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="10">
@@ -4465,7 +4467,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>노운현</t>
+          <t>윤정현</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4475,54 +4477,54 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3 1/3</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>18.9</v>
       </c>
       <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7</v>
+      </c>
+      <c r="S10" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>8</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
@@ -4536,13 +4538,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AA10" t="n">
         <v>1</v>
@@ -4560,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -4572,13 +4574,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -4587,13 +4589,13 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AP10" t="n">
         <v>1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -4602,7 +4604,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>장재영</t>
+          <t>노운현</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4612,20 +4614,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7.71</v>
+        <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4633,58 +4635,56 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
       </c>
       <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>6</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>19</v>
       </c>
-      <c r="Q11" t="n">
-        <v>12</v>
-      </c>
-      <c r="R11" t="n">
-        <v>12</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>70</v>
-      </c>
       <c r="Y11" t="n">
-        <v>285</v>
+        <v>56</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.371</v>
+        <v>0.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
@@ -4723,16 +4723,16 @@
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>김성진</t>
+          <t>장재영</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4751,20 +4751,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>7.71</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4772,32 +4772,34 @@
       <c r="J12" t="n">
         <v>0</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L12" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="Q12" t="n">
         <v>12</v>
       </c>
       <c r="R12" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -4812,16 +4814,16 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="Y12" t="n">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.313</v>
+        <v>0.371</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -4830,13 +4832,13 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -4851,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL12" t="n">
         <v>0</v>
@@ -4860,16 +4862,16 @@
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12" t="n">
         <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -4878,7 +4880,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>박주성</t>
+          <t>김성진</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4888,53 +4890,53 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5.54</v>
+        <v>7.71</v>
       </c>
       <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>10</v>
       </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>11</v>
-      </c>
       <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
         <v>4</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>6</v>
       </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>8</v>
-      </c>
       <c r="Q13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S13" t="n">
-        <v>1.31</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -4949,28 +4951,28 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="n">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.224</v>
+        <v>0.313</v>
       </c>
       <c r="AA13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
         <v>0</v>
@@ -4985,28 +4987,28 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP13" t="n">
         <v>7</v>
       </c>
-      <c r="AL13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="14">
@@ -5015,7 +5017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>김동혁</t>
+          <t>박주성</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5025,55 +5027,53 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10 2/3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.06</v>
+        <v>5.54</v>
       </c>
       <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>11</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q14" t="n">
         <v>9</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
+      <c r="R14" t="n">
         <v>8</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>6</v>
-      </c>
-      <c r="R14" t="n">
-        <v>6</v>
-      </c>
       <c r="S14" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -5088,28 +5088,28 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Y14" t="n">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.211</v>
+        <v>0.224</v>
       </c>
       <c r="AA14" t="n">
         <v>5</v>
       </c>
       <c r="AB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -5124,28 +5124,28 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AQ14" t="n">
-        <v>5.25</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>박승주</t>
+          <t>김동혁</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5164,14 +5164,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14 2/3</t>
+          <t>10 2/3</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.61</v>
+        <v>5.06</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -5191,28 +5191,28 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S15" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -5227,31 +5227,31 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="Y15" t="n">
-        <v>280</v>
+        <v>168</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.149</v>
+        <v>0.211</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -5266,25 +5266,25 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO15" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AP15" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.39</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="16">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>김재웅</t>
+          <t>김태훈</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5303,125 +5303,125 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>38 2/3</t>
+          <t>27 1/3</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.7</v>
+        <v>3.29</v>
       </c>
       <c r="F16" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L16" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>11</v>
+      </c>
+      <c r="R16" t="n">
+        <v>10</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>122</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>453</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="AA16" t="n">
         <v>3</v>
       </c>
-      <c r="P16" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD16" t="n">
         <v>3</v>
       </c>
-      <c r="R16" t="n">
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
         <v>3</v>
       </c>
-      <c r="S16" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1</v>
-      </c>
-      <c r="X16" t="n">
-        <v>151</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>641</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
+      <c r="AO16" t="n">
+        <v>31</v>
+      </c>
+      <c r="AP16" t="n">
         <v>23</v>
       </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>45</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>0.62</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="17">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>김태훈</t>
+          <t>김재웅</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5440,125 +5440,125 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27 1/3</t>
+          <t>39 2/3</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3.29</v>
+        <v>0.91</v>
       </c>
       <c r="F17" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>21</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>156</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>659</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="n">
         <v>3</v>
       </c>
-      <c r="N17" t="n">
-        <v>14</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
         <v>24</v>
       </c>
-      <c r="Q17" t="n">
-        <v>11</v>
-      </c>
-      <c r="R17" t="n">
-        <v>10</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1</v>
-      </c>
-      <c r="X17" t="n">
-        <v>122</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>453</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>12</v>
-      </c>
       <c r="AM17" t="n">
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.35</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="18">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>이승호</t>
+          <t>이명종</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5714,53 +5714,53 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>35 1/3</t>
+          <t>12 2/3</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="F19" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.667</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5772,67 +5772,67 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="Y19" t="n">
-        <v>550</v>
+        <v>177</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.228</v>
+        <v>0.175</v>
       </c>
       <c r="AA19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
       </c>
       <c r="AC19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL19" t="n">
         <v>3</v>
       </c>
-      <c r="AD19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>19</v>
-      </c>
       <c r="AM19" t="n">
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AO19" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AP19" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.9399999999999999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>김준형</t>
+          <t>양현</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5851,53 +5851,53 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13 1/3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="F20" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>9</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>6</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R20" t="n">
         <v>3</v>
       </c>
       <c r="S20" t="n">
-        <v>1.65</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -5912,16 +5912,16 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y20" t="n">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.205</v>
+        <v>0.188</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -5930,13 +5930,13 @@
         <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK20" t="n">
         <v>2</v>
@@ -5960,16 +5960,16 @@
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.88</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="21">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>양현</t>
+          <t>김준형</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5988,20 +5988,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13 1/3</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -6010,31 +6010,31 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>9</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
         <v>6</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
       </c>
       <c r="Q21" t="n">
         <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9</v>
+        <v>1.65</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -6049,16 +6049,16 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="Y21" t="n">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.167</v>
+        <v>0.205</v>
       </c>
       <c r="AA21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
@@ -6067,13 +6067,13 @@
         <v>1</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -6085,28 +6085,28 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP21" t="n">
         <v>16</v>
       </c>
-      <c r="AP21" t="n">
-        <v>11</v>
-      </c>
       <c r="AQ21" t="n">
-        <v>1.45</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="22">
@@ -6115,7 +6115,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>문성현</t>
+          <t>이승호</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6125,55 +6125,53 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>32 2/3</t>
+          <t>37 1/3</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="F22" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>10</v>
       </c>
       <c r="J22" t="n">
+        <v>9</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="L22" t="n">
+        <v>30</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>17</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q22" t="n">
         <v>8</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>21</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>10</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>6</v>
-      </c>
       <c r="R22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S22" t="n">
-        <v>0.95</v>
+        <v>1.26</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -6188,31 +6186,31 @@
         <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="Y22" t="n">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.186</v>
+        <v>0.231</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
@@ -6224,28 +6222,28 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK22" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AL22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AO22" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.5</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="23">
@@ -6254,7 +6252,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>이영준</t>
+          <t>문성현</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6264,14 +6262,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6 2/3</t>
+          <t>34 1/3</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -6280,10 +6278,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -6291,28 +6289,28 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S23" t="n">
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -6324,34 +6322,34 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="Y23" t="n">
-        <v>106</v>
+        <v>542</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.217</v>
+        <v>0.179</v>
       </c>
       <c r="AA23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -6366,25 +6364,25 @@
         <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="AP23" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="24">
@@ -6393,7 +6391,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>이명종</t>
+          <t>이영준</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6403,17 +6401,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10 2/3</t>
+          <t>6 2/3</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.84</v>
+        <v>1.35</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -6424,104 +6422,106 @@
       <c r="J24" t="n">
         <v>2</v>
       </c>
-      <c r="K24" t="n">
-        <v>1</v>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>106</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO24" t="n">
         <v>7</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>146</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.121</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>16</v>
       </c>
       <c r="AP24" t="n">
         <v>7</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
